--- a/data/trans_dic/P78_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Provincia-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.9572947649614866</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7688935501258036</v>
+        <v>0.7688935501258035</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8579485208536892</v>
+        <v>0.8579485208536894</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9089907195684895</v>
+        <v>0.9094366895691509</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7283125052120274</v>
+        <v>0.7226253990618318</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8272871334744093</v>
+        <v>0.8280377920055876</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9778209448543376</v>
+        <v>0.9786476030095744</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8106990053766001</v>
+        <v>0.8058762495633601</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8815956297662413</v>
+        <v>0.884470970839894</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8951546655532948</v>
+        <v>0.895154665553295</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7226494616681765</v>
+        <v>0.7226494616681766</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8019050755361912</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8293139852299731</v>
+        <v>0.8334268275752343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6843502030516461</v>
+        <v>0.68268797491417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7671580051446463</v>
+        <v>0.7662572643088637</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9388520307780014</v>
+        <v>0.9400334201160225</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7611897173177238</v>
+        <v>0.7591945014451575</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8333130636777545</v>
+        <v>0.8304496314416183</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.9418894405213881</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7247051380818227</v>
+        <v>0.7247051380818228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8193174145776845</v>
+        <v>0.8193174145776846</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8925604433637352</v>
+        <v>0.8877206088300194</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.68328650552764</v>
+        <v>0.6757705255549123</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7874706574547771</v>
+        <v>0.7868295889139462</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9696696384209502</v>
+        <v>0.969088073156129</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7688939457560503</v>
+        <v>0.768524092392039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8498435827350538</v>
+        <v>0.850794415484097</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9271300265153425</v>
+        <v>0.9271300265153423</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7469553494615555</v>
+        <v>0.7469553494615556</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8241930806992014</v>
+        <v>0.8241930806992013</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.866024146914813</v>
+        <v>0.8678482444294284</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7010872387709961</v>
+        <v>0.7012649576241556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7880017091277918</v>
+        <v>0.787446292894167</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9609811666273683</v>
+        <v>0.9640135017711233</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7874694496210867</v>
+        <v>0.7905288223440742</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8540034915653006</v>
+        <v>0.8522084005791063</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9742556049770249</v>
+        <v>0.9742556049770251</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8085846676247015</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9438047237968814</v>
+        <v>0.9444327338408725</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7700570029878644</v>
+        <v>0.7640033457144637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8628214115496483</v>
+        <v>0.8578499045855232</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9892825481083851</v>
+        <v>0.989047050614561</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8463063137263381</v>
+        <v>0.8432962678532331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9081753421696982</v>
+        <v>0.9068095474895173</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.9145153427530921</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.750661100732297</v>
+        <v>0.7506611007322971</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8268269690548259</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8570261813358719</v>
+        <v>0.8528758055070622</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6979403748499196</v>
+        <v>0.6986054842224184</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7903303023445306</v>
+        <v>0.7926620418143665</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9512747379232904</v>
+        <v>0.9501330909322595</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7913178383660761</v>
+        <v>0.7953372429262395</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8566171466715178</v>
+        <v>0.8569374605341101</v>
       </c>
     </row>
     <row r="22">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9628133558696558</v>
+        <v>0.962813355869656</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8417128226035502</v>
+        <v>0.84171282260355</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.8968137120904741</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9285175194478057</v>
+        <v>0.9259841751633928</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8114784398008683</v>
+        <v>0.8095825108703656</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8764497267421681</v>
+        <v>0.8743496306026182</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9833811486932179</v>
+        <v>0.9807769430320256</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8694850335582848</v>
+        <v>0.8704627980768166</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9140174734518108</v>
+        <v>0.9160579501563214</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9686118230264136</v>
+        <v>0.9686118230264135</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.7456181162397953</v>
+        <v>0.7456181162397955</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8441061310330933</v>
+        <v>0.8441061310330935</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9429090487854834</v>
+        <v>0.9385870767897579</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7141328562575753</v>
+        <v>0.7133515258280663</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8235845565031169</v>
+        <v>0.8245504431340906</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.983340830922756</v>
+        <v>0.9833775126786677</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7739448252825691</v>
+        <v>0.7723872839378683</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8627502969249897</v>
+        <v>0.8624011387234679</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.94603301393177</v>
+        <v>0.9460330139317702</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.7667759827088031</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9314674318280844</v>
+        <v>0.9319032442755407</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7535919355079969</v>
+        <v>0.7520832779206509</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8378481942069994</v>
+        <v>0.8384092055529448</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9573235433288995</v>
+        <v>0.9571891430337899</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7805075141317626</v>
+        <v>0.7811545316952804</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8567642617854185</v>
+        <v>0.8566555622068365</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>218521</v>
+        <v>218629</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>195320</v>
+        <v>193794</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>420743</v>
+        <v>421124</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>235068</v>
+        <v>235267</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>217414</v>
+        <v>216121</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>448363</v>
+        <v>449825</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>270414</v>
+        <v>271755</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>262545</v>
+        <v>261908</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>544460</v>
+        <v>543821</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>306131</v>
+        <v>306516</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>292024</v>
+        <v>291259</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>591411</v>
+        <v>589379</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>172978</v>
+        <v>172040</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>171554</v>
+        <v>169667</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>350324</v>
+        <v>350038</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>187922</v>
+        <v>187809</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>193048</v>
+        <v>192955</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>378072</v>
+        <v>378495</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>212185</v>
+        <v>212631</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>228927</v>
+        <v>228985</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>450375</v>
+        <v>450058</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>235450</v>
+        <v>236193</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>257133</v>
+        <v>258132</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>488098</v>
+        <v>487072</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>145100</v>
+        <v>145196</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>134340</v>
+        <v>133284</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>283173</v>
+        <v>281541</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>152091</v>
+        <v>152055</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>147642</v>
+        <v>147117</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>298058</v>
+        <v>297609</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>142217</v>
+        <v>141529</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>133339</v>
+        <v>133466</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>282139</v>
+        <v>282972</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>157857</v>
+        <v>157668</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>151179</v>
+        <v>151947</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>305803</v>
+        <v>305917</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>449870</v>
+        <v>448642</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>470930</v>
+        <v>469830</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>933278</v>
+        <v>931042</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>476451</v>
+        <v>475189</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>504593</v>
+        <v>505161</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>973281</v>
+        <v>975454</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>504388</v>
+        <v>502077</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>482926</v>
+        <v>482398</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>997500</v>
+        <v>998670</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>526017</v>
+        <v>526036</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>523373</v>
+        <v>522320</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1044936</v>
+        <v>1044514</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2183725</v>
+        <v>2184747</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2148871</v>
+        <v>2144569</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>4353373</v>
+        <v>4356288</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2244342</v>
+        <v>2244027</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2225621</v>
+        <v>2227466</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4451659</v>
+        <v>4451094</v>
       </c>
     </row>
     <row r="40">
